--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3899211.790215645</v>
+        <v>3895055.603907679</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12134429.06144738</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7365616.209180886</v>
+        <v>7365616.209180885</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>195.8148351910621</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>287.603020375924</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>127.7619054293398</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>36.64457252601905</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.9841904343191</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>107.6832345028723</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>36.17011366611955</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>56.80749169430099</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>68.38206950592196</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>253.8207281244481</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.52169730043581</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>206.2864326596783</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>33.66638448560004</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>119.8264588081772</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856585</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012214</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>159.3471710336398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634801</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722613</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701344</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174125</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.4564809702485</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986274</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182119</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465687</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229308</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922684</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462235</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819368</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986274</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>14.7552983824251</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229308</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922684</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462234</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012117</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016441</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892436</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.99871774582714</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>98.45284414232987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>186.66643877102</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>97.75513637220187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>12.74007641194018</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819367</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465686</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>99.7068134286115</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856496</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012112</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.026286001644</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272877</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892436</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>86.24032515900481</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>77.93612009725575</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>18.52833786981382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.430089661817</v>
+        <v>1477.15851254567</v>
       </c>
       <c r="C2" t="n">
-        <v>974.430089661817</v>
+        <v>1108.195995605259</v>
       </c>
       <c r="D2" t="n">
-        <v>974.430089661817</v>
+        <v>749.9302969985081</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>364.1420444002638</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722095</v>
+        <v>357.1965436510604</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640841</v>
+        <v>344.784686383339</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073758</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178236</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136015</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693617</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929201</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1929.733672768589</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.61872114746</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016314</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077745</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1361.029929725939</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X2" t="n">
-        <v>1361.029929725939</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y2" t="n">
-        <v>1361.029929725939</v>
+        <v>1863.758352609792</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093827</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995042</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>198.538474420229</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234839</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703285</v>
+        <v>1435.803266922409</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136617</v>
+        <v>1721.137137355741</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>1959.942089107198</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.8522850494255</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>180.8522850494255</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>180.8522850494255</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>51.7998553228197</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521422</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968598</v>
+        <v>884.3189032968571</v>
       </c>
       <c r="U4" t="n">
-        <v>884.3189032968598</v>
+        <v>847.3041835736055</v>
       </c>
       <c r="V4" t="n">
-        <v>629.634415090973</v>
+        <v>847.3041835736055</v>
       </c>
       <c r="W4" t="n">
-        <v>629.634415090973</v>
+        <v>847.3041835736055</v>
       </c>
       <c r="X4" t="n">
-        <v>401.6448641929557</v>
+        <v>847.3041835736055</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.8522850494255</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1319.75945534812</v>
+        <v>1315.610655259717</v>
       </c>
       <c r="C5" t="n">
-        <v>950.796938407708</v>
+        <v>1315.610655259717</v>
       </c>
       <c r="D5" t="n">
-        <v>950.796938407708</v>
+        <v>957.3449566529669</v>
       </c>
       <c r="E5" t="n">
-        <v>843.7422005952644</v>
+        <v>571.5567040547226</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>160.570799265115</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019557</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961804</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.75945534812</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.75945534812</v>
+        <v>2092.349827299651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.75945534812</v>
+        <v>1702.210495323839</v>
       </c>
     </row>
     <row r="6">
@@ -4631,19 +4631,19 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
@@ -4652,19 +4652,19 @@
         <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>621.3977863318798</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.8893808408909</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C7" t="n">
-        <v>918.8893808408909</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1610.448201804262</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1610.448201804262</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1321.330424814661</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="V7" t="n">
-        <v>1321.330424814661</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="W7" t="n">
-        <v>1321.330424814661</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="X7" t="n">
-        <v>1321.330424814661</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y7" t="n">
-        <v>1100.537845671131</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>912.4625122930322</v>
+        <v>1183.403261976894</v>
       </c>
       <c r="C8" t="n">
-        <v>543.4999953526205</v>
+        <v>814.440745036482</v>
       </c>
       <c r="D8" t="n">
-        <v>474.4271978718913</v>
+        <v>456.1750464297314</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228369</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019557</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961804</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618234</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>1672.528110618234</v>
+        <v>2333.608192277907</v>
       </c>
       <c r="X8" t="n">
-        <v>1299.062352357154</v>
+        <v>1960.142434016827</v>
       </c>
       <c r="Y8" t="n">
-        <v>1299.062352357154</v>
+        <v>1570.003102041015</v>
       </c>
     </row>
     <row r="9">
@@ -4868,31 +4868,31 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N9" t="n">
         <v>1355.974147160211</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.8295883175485</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C10" t="n">
         <v>349.8295883175485</v>
@@ -4947,67 +4947,67 @@
         <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1121.920797458414</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>867.2363092525266</v>
+        <v>1438.613536154203</v>
       </c>
       <c r="W10" t="n">
-        <v>577.8191392155659</v>
+        <v>1149.196366117243</v>
       </c>
       <c r="X10" t="n">
-        <v>349.8295883175485</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y10" t="n">
-        <v>349.8295883175485</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111687</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107575</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332378</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014795</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355949</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068018</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637279</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890277</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684164</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107663</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107663</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5627,7 +5627,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
         <v>1781.463605996603</v>
@@ -5636,7 +5636,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.614450297915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504999</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504999</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381641</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>464.505145055771</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578606</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578606</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000586</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648809</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611848</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.32745719403</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5348780504999</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075746</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332377</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355918</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398587</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492572</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474778</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466568</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612122997</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191904</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349464</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938894</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493497</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732782</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732782</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107663</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263523</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356169</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232816</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408889</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429791</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578595</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038333</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487561</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487561</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.378057281675</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1652.960887244715</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1424.971336346698</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.178757203168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,43 +5968,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6013,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6095,7 +6095,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
         <v>2244.643795685161</v>
@@ -6113,7 +6113,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2977.325134535461</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>2808.388951607555</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>2808.388951607555</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807125</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309215</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024096</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296619</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822158</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998098</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729134</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389142</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098128</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671688</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398587</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.78744865099</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305895</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.932614305895</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650093</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444207</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.755729407247</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>3379.76617850923</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>3158.9735993657</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.1395539230172</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>819.2033709951103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>669.0867315827745</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>521.1736380003814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.987318831765</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.570148794804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.580597896787</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1169.788018753257</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3175.341129796739</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868832</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4121.883832013356</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3867.199343807469</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3577.782173770509</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3577.782173770509</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3356.989594626978</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>878.3568999154069</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380983</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>741.8431516380983</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>591.7265122257631</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>443.8134186433706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851772</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000577</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000577</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782963</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797762</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832668</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487573</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510515</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854713</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648827</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611867</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611867</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683375</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>314.2518478393654</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>172.5400166815635</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1669.670361056914</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.253191019954</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>1152.263640121936</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.4710609784063</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.84308739672161</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84.69108553971142</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>186.3303545049387</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>22.36271716134991</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530995</v>
+        <v>162.7491560325415</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144495</v>
+        <v>299.8549597144492</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.967226464534178e-11</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>252.5180899036441</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>47.42036229045061</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>66.36248435539736</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.37549921168831</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272878</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892436</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182119</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>131.6786642641436</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856504</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272878</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>109.4223302771041</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>30.73901155626831</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>69.49168472642596</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>45.71423459431918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462233</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890366</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.329716221309766</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669957.04523213</v>
+        <v>669957.0452321302</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631028.110444866</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631028.1104448659</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631028.110444866</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
@@ -26322,40 +26322,40 @@
         <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977554</v>
-      </c>
       <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="O2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>6.614506921984933e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.92961533011597e-09</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>4.450037977221655e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260478</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
-        <v>6.614506921984933e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042357</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694999</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695011</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695011</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695583</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695522</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695213</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.48053169524</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26484,10 +26484,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239069</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388298.1239698718</v>
+        <v>-388298.1239698703</v>
       </c>
       <c r="C6" t="n">
-        <v>405203.5217410249</v>
+        <v>405203.5217410233</v>
       </c>
       <c r="D6" t="n">
-        <v>577967.8815309185</v>
+        <v>577967.8815309184</v>
       </c>
       <c r="E6" t="n">
-        <v>178669.0565964028</v>
+        <v>178321.677342046</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421531</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="G6" t="n">
-        <v>679557.9243421573</v>
+        <v>679210.5450877964</v>
       </c>
       <c r="H6" t="n">
-        <v>679557.9243421534</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="I6" t="n">
-        <v>679557.9243421491</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="J6" t="n">
-        <v>510143.907516106</v>
+        <v>509796.5282617487</v>
       </c>
       <c r="K6" t="n">
-        <v>679557.9243421536</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="L6" t="n">
-        <v>679557.9243421535</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="M6" t="n">
-        <v>548673.4674379176</v>
+        <v>548326.0881835616</v>
       </c>
       <c r="N6" t="n">
-        <v>679557.9243421536</v>
+        <v>679210.5450877968</v>
       </c>
       <c r="O6" t="n">
-        <v>679557.9243421537</v>
+        <v>679210.5450877969</v>
       </c>
       <c r="P6" t="n">
-        <v>679557.9243421539</v>
+        <v>679210.545087797</v>
       </c>
     </row>
   </sheetData>
@@ -26703,16 +26703,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26752,10 +26752,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.200897510909559e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.911715561524034e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352479</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>112.7826102584493</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>61.63794834148899</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.67205721722938</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>249.6006882117999</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>275.9461796379426</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>303.841788878997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>158.3150556679715</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.4191075254047</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.300972114761</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>95.42024059296492</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>282.7049019192698</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>45.85121066414968</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.911271389573812e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.738084754821929e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>469.5567819573404</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>690.2058188111466</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437213</v>
+        <v>163.1438255932933</v>
       </c>
       <c r="P18" t="n">
-        <v>285.8867128926113</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418553</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742415</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422566</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>324.5433647340863</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437213</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485275</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418553</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742415</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175652</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>351.4708102230528</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520769</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.574717687321</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315063</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692773</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>317.7382584236242</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938085</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138484</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932396</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517965</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840959</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>351.2966729088902</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>360.4000120339372</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168693</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>322.6778172788395</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352463</v>
+        <v>532.7551050146884</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275997</v>
+        <v>551.8516545275995</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4227480353221</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>547.6095743667022</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.70871103964</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107903204</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193475</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924703</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641906</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992769</v>
+        <v>20.5475811488489</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782811</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789134</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.70871103964</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902908</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193475</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924703</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678976</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>182.409330812068</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992769</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.617838762506</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789134</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295315</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191304</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001044</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899063</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066242</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.402257299898</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295391</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.342014319132</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010457</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899079</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.261899706046</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,10 +37080,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295393</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.342014319132</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010457</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.626132989908</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.261899706046</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.4890361370313</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3895055.603907679</v>
+        <v>3896816.134210465</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>128.9204451416398</v>
       </c>
       <c r="H2" t="n">
-        <v>195.8148351910621</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>4.393022250361724</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>36.64457252601905</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>64.01204702817104</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>107.6832345028723</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60.8653846367466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>56.80749169430099</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>253.8207281244481</v>
+        <v>253.8207281244472</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>206.2864326596783</v>
+        <v>206.2864326596779</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>54.26758323426748</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>180.6687625091738</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>86.24032515900481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>77.93612009725575</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1477.15851254567</v>
+        <v>1708.891155682079</v>
       </c>
       <c r="C2" t="n">
-        <v>1108.195995605259</v>
+        <v>1339.928638741667</v>
       </c>
       <c r="D2" t="n">
-        <v>749.9302969985081</v>
+        <v>981.6629401349167</v>
       </c>
       <c r="E2" t="n">
-        <v>364.1420444002638</v>
+        <v>595.8746875366724</v>
       </c>
       <c r="F2" t="n">
-        <v>357.1965436510604</v>
+        <v>588.9291867874689</v>
       </c>
       <c r="G2" t="n">
-        <v>344.784686383339</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>709.3239917354365</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1005.394558293039</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1646.417767912933</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="W2" t="n">
-        <v>2237.224110870872</v>
+        <v>2095.4909957462</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.758352609792</v>
+        <v>2095.4909957462</v>
       </c>
       <c r="Y2" t="n">
-        <v>1863.758352609792</v>
+        <v>2095.4909957462</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025152</v>
+        <v>532.9594726600656</v>
       </c>
       <c r="M3" t="n">
-        <v>1435.803266922409</v>
+        <v>1173.98268227996</v>
       </c>
       <c r="N3" t="n">
-        <v>1721.137137355741</v>
+        <v>1723.657007090154</v>
       </c>
       <c r="O3" t="n">
-        <v>1959.942089107198</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.6557187433658</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="C4" t="n">
-        <v>496.7195358154589</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>336.060391870591</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521419</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968571</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>847.3041835736055</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>847.3041835736055</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="W4" t="n">
-        <v>847.3041835736055</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="X4" t="n">
-        <v>847.3041835736055</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.3041835736055</v>
+        <v>340.4977880830776</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.610655259717</v>
+        <v>962.8419999896021</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.610655259717</v>
+        <v>962.8419999896021</v>
       </c>
       <c r="D5" t="n">
-        <v>957.3449566529669</v>
+        <v>604.5763013828516</v>
       </c>
       <c r="E5" t="n">
-        <v>571.5567040547226</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>160.570799265115</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.815585560731</v>
+        <v>2113.046930290615</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.349827299651</v>
+        <v>1739.581172029536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.210495323839</v>
+        <v>1349.441840053724</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>942.9699568457228</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.6557187433658</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C7" t="n">
-        <v>496.7195358154589</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D7" t="n">
-        <v>346.6028964031232</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1068.096762717136</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1068.096762717136</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1068.096762717136</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.096762717136</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.3041835736055</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="8">
@@ -4789,58 +4789,58 @@
         <v>456.1750464297314</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>70.38679383148717</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>63.44129308228369</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="W8" t="n">
         <v>2333.608192277907</v>
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421436</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.564585834469</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4947,40 +4947,40 @@
         <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5026,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5254,73 +5254,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,16 +6071,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6256,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,16 +7013,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7165,46 +7165,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273903</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311364</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613761</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>314.2518478393654</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>172.5400166815635</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>185.8651263285108</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>267.0105599766277</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>186.3303545049387</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>162.7491560325415</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144492</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>164.3170701178273</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.329716221309766</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669957.0452321302</v>
+        <v>669957.0452321299</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448655</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.694760941172718e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695133</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695011</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695011</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26444,7 +26444,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,10 +26453,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695145</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388298.1239698703</v>
+        <v>-388298.1239698733</v>
       </c>
       <c r="C6" t="n">
-        <v>405203.5217410233</v>
+        <v>405203.5217410261</v>
       </c>
       <c r="D6" t="n">
         <v>577967.8815309184</v>
       </c>
       <c r="E6" t="n">
-        <v>178321.677342046</v>
+        <v>178634.3186709677</v>
       </c>
       <c r="F6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167172</v>
       </c>
       <c r="G6" t="n">
-        <v>679210.5450877964</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="H6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="I6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167177</v>
       </c>
       <c r="J6" t="n">
-        <v>509796.5282617487</v>
+        <v>510109.1695906699</v>
       </c>
       <c r="K6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167183</v>
       </c>
       <c r="L6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="M6" t="n">
-        <v>548326.0881835616</v>
+        <v>548638.7295124829</v>
       </c>
       <c r="N6" t="n">
-        <v>679210.5450877968</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="O6" t="n">
-        <v>679210.5450877969</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="P6" t="n">
-        <v>679210.545087797</v>
+        <v>679523.1864167181</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918288</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>283.3672935534044</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7826102584493</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>141.0280257725695</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>249.6006882117999</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>317.9183230440908</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>303.841788878997</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>229.4191075254047</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>95.42024059296492</v>
+        <v>95.4202405929658</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>45.85121066414968</v>
+        <v>45.85121066415013</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279218</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932933</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,31 +32554,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,7 +33745,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175652</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>425.8881376600179</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>555.2265907173683</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>360.4000120339372</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>532.7551050146884</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275995</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059035</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>20.5475811488489</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
